--- a/planning/pokemon_planning.xlsx
+++ b/planning/pokemon_planning.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ma55700/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ma55700/Desktop/sei/projects/pokemon/pokemon-backend/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D99888-871D-224B-9C72-85A5705A8591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8A974B-E139-2848-AA12-656AB04A1AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="1740" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{7E3DD1EE-BB5A-DD4E-9A77-B0B5B75F088C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{7E3DD1EE-BB5A-DD4E-9A77-B0B5B75F088C}"/>
   </bookViews>
   <sheets>
     <sheet name="Wireframe" sheetId="1" r:id="rId1"/>
     <sheet name="ERD" sheetId="4" r:id="rId2"/>
     <sheet name="User Stories" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="81">
   <si>
     <t>{ Dropdown or Search }</t>
   </si>
@@ -116,57 +116,18 @@
     <t>integer</t>
   </si>
   <si>
-    <t>damage_factor</t>
-  </si>
-  <si>
     <t>slot</t>
   </si>
   <si>
-    <t>FK to Types</t>
-  </si>
-  <si>
-    <t>target_type_id</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>type_id</t>
-  </si>
-  <si>
-    <t>damage_type_id</t>
-  </si>
-  <si>
-    <t>PK (FK to Pokémon-Types)</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>FK to Pokémon</t>
-  </si>
-  <si>
-    <t>pokemon_id</t>
-  </si>
-  <si>
-    <t>Type-Efficacy</t>
-  </si>
-  <si>
     <t>Types</t>
   </si>
   <si>
-    <t>Pokémon-Types</t>
-  </si>
-  <si>
-    <t>FK to Move-Targets</t>
-  </si>
-  <si>
-    <t>target_id</t>
-  </si>
-  <si>
     <t>priority</t>
   </si>
   <si>
@@ -188,131 +149,143 @@
     <t>FK to Moves</t>
   </si>
   <si>
-    <t>move_id</t>
-  </si>
-  <si>
     <t>boolean</t>
   </si>
   <si>
-    <t>is_mythical</t>
-  </si>
-  <si>
-    <t>PK (FK to Pokémon-Moves)</t>
-  </si>
-  <si>
-    <t>is_legendary</t>
-  </si>
-  <si>
-    <t>Move-Targets</t>
-  </si>
-  <si>
     <t>Moves</t>
   </si>
   <si>
-    <t>Pokémon-Moves</t>
-  </si>
-  <si>
-    <t>forms_switchable</t>
-  </si>
-  <si>
-    <t>has_gender_differences</t>
-  </si>
-  <si>
-    <t>hatch_counter</t>
-  </si>
-  <si>
-    <t>is_hidden</t>
-  </si>
-  <si>
-    <t>is_baby</t>
-  </si>
-  <si>
-    <t>FK to Abilities</t>
-  </si>
-  <si>
-    <t>ability_id</t>
-  </si>
-  <si>
-    <t>is_default</t>
-  </si>
-  <si>
-    <t>base_happiness</t>
-  </si>
-  <si>
-    <t>PK (FK to Pokémon-Abilities)</t>
-  </si>
-  <si>
-    <t>capture_rate</t>
-  </si>
-  <si>
     <t>Abilities</t>
   </si>
   <si>
-    <t>Pokémon-Abilities</t>
-  </si>
-  <si>
-    <t>base_experience</t>
-  </si>
-  <si>
-    <t>gender_rate</t>
-  </si>
-  <si>
     <t>weight</t>
   </si>
   <si>
-    <t>evolution_chain</t>
-  </si>
-  <si>
     <t>effort</t>
   </si>
   <si>
     <t>height</t>
   </si>
   <si>
-    <t>evolves_from_species</t>
-  </si>
-  <si>
-    <t>base_stat</t>
-  </si>
-  <si>
-    <t>FK to Pokémon Species</t>
-  </si>
-  <si>
-    <t>species_id</t>
-  </si>
-  <si>
     <t>generation</t>
   </si>
   <si>
-    <t>FK to Stats</t>
-  </si>
-  <si>
-    <t>stat_id</t>
-  </si>
-  <si>
-    <t>PK (FK to Pokémon-Stats)</t>
-  </si>
-  <si>
     <t>PK</t>
   </si>
   <si>
     <t>Stats</t>
   </si>
   <si>
-    <t>Pokémon-Stats</t>
-  </si>
-  <si>
-    <t>Pokémon</t>
-  </si>
-  <si>
-    <t>Pokémon Species</t>
+    <t>speciesId</t>
+  </si>
+  <si>
+    <t>speciesName</t>
+  </si>
+  <si>
+    <t>evolvesFromSpecies</t>
+  </si>
+  <si>
+    <t>evolutionChain</t>
+  </si>
+  <si>
+    <t>genderRate</t>
+  </si>
+  <si>
+    <t>captureRate</t>
+  </si>
+  <si>
+    <t>baseHappiness</t>
+  </si>
+  <si>
+    <t>isBaby</t>
+  </si>
+  <si>
+    <t>hatchCounter</t>
+  </si>
+  <si>
+    <t>hasGenderDifferences</t>
+  </si>
+  <si>
+    <t>formsSwitchable</t>
+  </si>
+  <si>
+    <t>isLegendary</t>
+  </si>
+  <si>
+    <t>isMythical</t>
+  </si>
+  <si>
+    <t>pokemonId</t>
+  </si>
+  <si>
+    <t>pokemonName</t>
+  </si>
+  <si>
+    <t>baseExperience</t>
+  </si>
+  <si>
+    <t>isDefault</t>
+  </si>
+  <si>
+    <t>statName</t>
+  </si>
+  <si>
+    <t>baseStat</t>
+  </si>
+  <si>
+    <t>abilityName</t>
+  </si>
+  <si>
+    <t>isHidden</t>
+  </si>
+  <si>
+    <t>pokemonMovesId</t>
+  </si>
+  <si>
+    <t>moveId</t>
+  </si>
+  <si>
+    <t>typeName</t>
+  </si>
+  <si>
+    <t>moveName</t>
+  </si>
+  <si>
+    <t>targetName</t>
+  </si>
+  <si>
+    <t>MoveDetails</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>PokemonSpecies</t>
+  </si>
+  <si>
+    <t>statsId</t>
+  </si>
+  <si>
+    <t>abilitiesId</t>
+  </si>
+  <si>
+    <t>typesId</t>
+  </si>
+  <si>
+    <t>FK to MoveDetails</t>
+  </si>
+  <si>
+    <t>FK to Pokemon</t>
+  </si>
+  <si>
+    <t>FK to Pokemon Species</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -346,6 +319,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -525,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -541,6 +522,42 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -610,45 +627,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,6 +655,1854 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22760</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>67080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1780</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>16160</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="28" name="Ink 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794C2F7C-86D8-4848-B592-40C1A119C45C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3121560" y="3115080"/>
+            <a:ext cx="1134720" cy="152280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="28" name="Ink 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794C2F7C-86D8-4848-B592-40C1A119C45C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3117240" y="3110750"/>
+              <a:ext cx="1143360" cy="160940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>196280</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>122520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14740</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>115880</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="31" name="Ink 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{996AC669-4A5F-8D46-9AE0-60A44B760958}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3295080" y="3170520"/>
+            <a:ext cx="974160" cy="196560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="31" name="Ink 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{996AC669-4A5F-8D46-9AE0-60A44B760958}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3290758" y="3166200"/>
+              <a:ext cx="982803" cy="205200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>27660</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>177920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1565580</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>10000</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="32" name="Ink 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ABDF585-54B7-6F49-A3C1-1CF6AFDE72C3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7533360" y="990720"/>
+            <a:ext cx="1537920" cy="1864080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="32" name="Ink 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ABDF585-54B7-6F49-A3C1-1CF6AFDE72C3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7529040" y="986400"/>
+              <a:ext cx="1546560" cy="1872720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1438860</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>59480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6520</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>117640</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="35" name="Ink 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{787E3AEE-55B4-E24C-A1F2-DD8C70FE6332}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8944560" y="872280"/>
+            <a:ext cx="155160" cy="261360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="35" name="Ink 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{787E3AEE-55B4-E24C-A1F2-DD8C70FE6332}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8940240" y="867966"/>
+              <a:ext cx="163800" cy="269988"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19380</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>18960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>202600</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="39" name="Ink 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F25C86-E5FB-2745-B411-D6B279B3AD6B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7525080" y="2457360"/>
+            <a:ext cx="1572120" cy="590040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="39" name="Ink 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F25C86-E5FB-2745-B411-D6B279B3AD6B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7520760" y="2453040"/>
+              <a:ext cx="1580760" cy="598680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1421580</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>94720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>61440</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="40" name="Ink 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CCE3DE0-0ED9-4444-8F0C-5340BABB4ADF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8927280" y="2329920"/>
+            <a:ext cx="168120" cy="169920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="40" name="Ink 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CCE3DE0-0ED9-4444-8F0C-5340BABB4ADF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8922960" y="2325600"/>
+              <a:ext cx="176760" cy="178560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1439940</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>71160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9040</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142800</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="41" name="Ink 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A62B57B4-C3B2-BB4C-B714-E94076253DCD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8945640" y="2509560"/>
+            <a:ext cx="156600" cy="71640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="41" name="Ink 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A62B57B4-C3B2-BB4C-B714-E94076253DCD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8941320" y="2505240"/>
+              <a:ext cx="165240" cy="80280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>31620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1579620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>83000</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="45" name="Ink 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49120D7-6D21-4F4E-83C3-4B92629EE6CF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7537320" y="3469680"/>
+            <a:ext cx="1548000" cy="474120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="45" name="Ink 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49120D7-6D21-4F4E-83C3-4B92629EE6CF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7533000" y="3465360"/>
+              <a:ext cx="1556640" cy="482760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1333380</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>162360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>21640</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>196560</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="46" name="Ink 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567616AE-DE72-F944-A18F-4F994BB927D9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8839080" y="3819960"/>
+            <a:ext cx="275760" cy="34200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="46" name="Ink 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567616AE-DE72-F944-A18F-4F994BB927D9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8834760" y="3815640"/>
+              <a:ext cx="284400" cy="42840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1354260</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10480</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>198920</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="47" name="Ink 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57AFCFF0-DCF4-BF4C-A893-DEE4EDCF92D3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8859960" y="3867840"/>
+            <a:ext cx="243720" cy="191880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="47" name="Ink 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57AFCFF0-DCF4-BF4C-A893-DEE4EDCF92D3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8855640" y="3863520"/>
+              <a:ext cx="252360" cy="200520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>26940</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>141480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1582140</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>128940</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="51" name="Ink 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF6B433-7114-5642-A221-9147386D0DBA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7532640" y="3799080"/>
+            <a:ext cx="1555200" cy="1854360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="51" name="Ink 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF6B433-7114-5642-A221-9147386D0DBA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7528320" y="3794760"/>
+              <a:ext cx="1563840" cy="1863000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1452900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>201460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>27760</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>201820</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="52" name="Ink 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67BB8A11-87EA-6542-AE25-16F924D13C8C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8958600" y="5522760"/>
+            <a:ext cx="162360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="52" name="Ink 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67BB8A11-87EA-6542-AE25-16F924D13C8C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8954280" y="5518440"/>
+              <a:ext cx="171000" cy="9000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1468380</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>15900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1582860</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>69380</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="53" name="Ink 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884A9187-7502-E942-8F1D-547A8A6439CB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8974080" y="5540400"/>
+            <a:ext cx="114480" cy="256680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="53" name="Ink 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884A9187-7502-E942-8F1D-547A8A6439CB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8969760" y="5536080"/>
+              <a:ext cx="123120" cy="265320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>30400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>198360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22880</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="57" name="Ink 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBEEAC43-5D8A-074C-B9E4-A761C387FE8F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12171600" y="3855960"/>
+            <a:ext cx="960120" cy="27720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="57" name="Ink 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBEEAC43-5D8A-074C-B9E4-A761C387FE8F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12167280" y="3851640"/>
+              <a:ext cx="968760" cy="36360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>775960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>113760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>792880</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>141320</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="59" name="Ink 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2311435E-31BC-0D43-9BE8-F6DC3CD8F6EE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12917160" y="3771360"/>
+            <a:ext cx="16920" cy="230760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="59" name="Ink 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2311435E-31BC-0D43-9BE8-F6DC3CD8F6EE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12912840" y="3767040"/>
+              <a:ext cx="25560" cy="239400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>174760</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>118080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>194200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>157520</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="60" name="Ink 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39A615A-3BFC-FC4F-9AF9-64F368952951}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12315960" y="3775680"/>
+            <a:ext cx="19440" cy="242640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="60" name="Ink 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39A615A-3BFC-FC4F-9AF9-64F368952951}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12311640" y="3771360"/>
+              <a:ext cx="28080" cy="251280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>40620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>175620</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7960</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="61" name="Ink 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7EA380-3AC6-D649-9A9E-43897523E8B6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7546320" y="3949560"/>
+            <a:ext cx="135000" cy="122400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="61" name="Ink 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7EA380-3AC6-D649-9A9E-43897523E8B6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7542000" y="3945240"/>
+              <a:ext cx="143640" cy="131040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>172740</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>158000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>173100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142720</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="62" name="Ink 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14FF828F-7CDF-5345-A1E5-1B1CD03D5368}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7678440" y="3409200"/>
+            <a:ext cx="360" cy="187920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="62" name="Ink 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14FF828F-7CDF-5345-A1E5-1B1CD03D5368}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7674120" y="3404880"/>
+              <a:ext cx="9000" cy="196560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>145380</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>77320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>164820</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>51600</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="63" name="Ink 62">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CF14CF6-7745-0C4D-B87B-5E8E530A91FD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7651080" y="2922120"/>
+            <a:ext cx="19440" cy="177480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="63" name="Ink 62">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CF14CF6-7745-0C4D-B87B-5E8E530A91FD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7646760" y="2917800"/>
+              <a:ext cx="28080" cy="186120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>101820</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>107520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>206940</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15920</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="64" name="Ink 63">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9667EB80-3D75-0F47-89D5-F2752EAB33CD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7607520" y="2545920"/>
+            <a:ext cx="105120" cy="111600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="64" name="Ink 63">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9667EB80-3D75-0F47-89D5-F2752EAB33CD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7603200" y="2541600"/>
+              <a:ext cx="113760" cy="120240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T15:49:14.451"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 400 24575,'14'0'0,"1"0"0,7 0 0,0 0 0,-6 0 0,4 0 0,-9 0 0,9 0 0,-4 0 0,0 0 0,5 0 0,-11 0 0,5 0 0,0 0 0,-4 0 0,3 0 0,-4 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,6 0 0,-4 0 0,4 0 0,-1 0 0,-3 0 0,4 0 0,0 0 0,-4 0 0,3 0 0,1 0 0,-4 0 0,9 0 0,-9 0 0,9 0 0,-9 0 0,9 0 0,-9 0 0,9 0 0,-9 0 0,9 0 0,-9 0 0,9 0 0,-9 0 0,3 0 0,1 0 0,-4 0 0,9 0 0,-9 0 0,9 0 0,-4 0 0,6 0 0,-6 0 0,4 0 0,-4 0 0,1 0 0,3 0 0,-4 5 0,6-4 0,-1 4 0,-5-5 0,4 0 0,-3 5 0,4-4 0,1 4 0,-1-5 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-6 0 0,4 0 0,-9 0 0,9 0 0,-9 0 0,9 0 0,-9 0 0,9 0 0,-9 0 0,9 0 0,-4 0 0,1 0 0,3 0 0,-4 0 0,6 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1-5 0,1 4 0,-6-8 0,4 8 0,-9-3 0,9 4 0,-9-4 0,4 3 0,0-4 0,-5 5 0,5 0 0,0 0 0,-4 0 0,4 0 0,-6-4 0,6 3 0,-5-3 0,5 4 0,-5 0 0,-1 0 0,0 0 0,1-4 0,-1 3 0,0-3 0,1 4 0,-1 0 0,1 0 0,-1 0 0,0-4 0,1 2 0,5-2 0,-5 4 0,11 0 0,-11 0 0,10 0 0,-9 0 0,4 0 0,0 0 0,-4 0 0,3-4 0,1 3 0,1-3 0,6 4 0,0 0 0,-1 0 0,-5 0 0,5-5 0,-5 4 0,5-4 0,1 5 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,-4 0 0,3 0 0,-9 0 0,9 0 0,-9 0 0,3 0 0,1 0 0,-4 0 0,4 0 0,-6 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,5 0 0,-4 0 0,3 0 0,-3 0 0,-1 0 0,-1 0 0,2 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,5 0 0,1 0 0,5 0 0,1 0 0,0 0 0,6 0 0,-5 0 0,5 0 0,-6 0 0,-6 0 0,4 0 0,-9 0 0,4 0 0,-6 0 0,-3 0 0,-2 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2379">2564 353 24575,'19'0'0,"-6"0"0,7 0 0,-9 0 0,3 0 0,-4 0 0,-1 0 0,-4-4 0,4 3 0,-4-3 0,0 0 0,3-1 0,-3-1 0,0-2 0,3 7 0,-6-7 0,6 7 0,-3-7 0,4 3 0,0 0 0,0-3 0,0 3 0,0-4 0,0 0 0,0 0 0,0 0 0,-4 0 0,3 4 0,-7-4 0,8 4 0,-4-4 0,4-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,0-6 0,-1 4 0,1 1 0,0 1 0,-1 4 0,0-4 0,0 0 0,0 1 0,0 3 0,-1 1 0,1 4 0,0 0 0,-1 0 0,1-4 0,0 3 0,0-4 0,1 5 0,-1-4 0,0 3 0,1-3 0,-2 0 0,1 3 0,0-3 0,-1 4 0,-3-4 0,2 3 0,-2-7 0,5 3 0,-1-1 0,0-2 0,0 7 0,-4-7 0,-2 7 0,-3-3 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T15:51:31.417"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 24575,'0'13'0,"0"0"0,4-4 0,1 0 0,5 1 0,-5-1 0,3 1 0,-2-1 0,3 0 0,0 1 0,1-5 0,-1 3 0,0-3 0,1 1 0,-1 2 0,1-7 0,-1 7 0,0-2 0,1-1 0,-5 3 0,3-3 0,-3 1 0,5 2 0,-1-7 0,-4 7 0,4-7 0,-4 8 0,4-8 0,-4 7 0,3-7 0,-3 7 0,4-3 0,0 0 0,0 3 0,1-2 0,-1-1 0,6 4 0,-4-4 0,3 5 0,-4 0 0,-1-5 0,1 3 0,-1-3 0,0 0 0,1 4 0,-1-8 0,-4 7 0,4-7 0,-4 8 0,4-8 0,0 7 0,0-3 0,0 4 0,0-4 0,0-1 0,0 0 0,1 1 0,-1 0 0,1 3 0,-1-3 0,0 5 0,0-2 0,0-3 0,-4 3 0,3-6 0,-3 6 0,4-3 0,0 0 0,-4 3 0,3-7 0,-7 7 0,8-7 0,-8 7 0,7-7 0,-3 3 0,0 0 0,3-3 0,-7 7 0,7-3 0,-7 4 0,7-4 0,-7 2 0,6-6 0,-2 3 0,3-4 0,0 0 0,0 3 0,0 2 0,-7-1 0,2 0 0,-7-4 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T15:51:59.597"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'7'51'0,"16"16"0,11 21 0,7 0-1336,4-2 1336,-4-1 0,-13-39 0,1 0 0,-4-1 0,0-1 0,3 1 0,1 0 0,25 32 0,-7-1 0,14-4 0,-8-5 0,1-7 0,7 10 0,-7-14 0,-22-17 0,1 0 0,28 17 0,1 14 0,-1-10 0,-8 1 0,6-1 0,-6 0 0,1 0 401,-4-8-401,-5 6 229,-4-15-229,-5 5 0,1-15 0,-17-4 679,7-7-679,-10 0 27,-1-6-27,4 4 0,-9-4 0,10 1 0,-9 4 0,8-5 0,-3 6 0,-1-6 0,4 4 0,-9-9 0,9 4 0,-9-5 0,4 0 0,-6-1 0,-4 1 0,3-1 0,-7 0 0,4 7 0,21 17 0,1 11 0,25 16 0,-7 0 0,-2-8 0,2 6 0,-11-17 0,7 8 0,-16-18 0,14 7 0,-14-7 0,12 2 0,-11 2 0,11-2 0,-12-2 0,6 6 0,-9-14 0,2 12 0,-2-12 0,1 5 0,0 1 0,-1-6 0,1 5 0,-2-6 0,-4 0 0,4-1 0,-5 1 0,1-6 0,3 4 0,-4-9 0,5 10 0,-4-10 0,3 9 0,-4-8 0,5 8 0,1-3 0,0-1 0,-1 5 0,10 5 0,-6 5 0,7 2 0,-8 1 0,5-9 0,-4 10 0,4-10 0,-6 3 0,-2-6 0,2 6 0,-1-5 0,1 5 0,-1-6 0,6 1 0,-5-1 0,7 7 0,-8-5 0,0 4 0,1 0 0,-1-5 0,1 6 0,-1-8 0,-1 1 0,1-1 0,-1 1 0,-4-1 0,-2-4 0,0 3 0,-4-9 0,4 3 0,-6-4 0,-3-1 0,1-4 0,5 3 0,5 9 0,6 1 0,0 10 0,5-5 0,-10-7 0,9 6 0,-11-6 0,6 5 0,-1 1 0,-4-1 0,4 1 0,-9 0 0,3-1 0,-5-5 0,1 5 0,-1-11 0,0 5 0,-1-5 0,1 4 0,-1-3 0,1 4 0,5 0 0,-4-5 0,4 5 0,0 0 0,-5-4 0,5 3 0,0-4 0,-4 5 0,4-3 0,-5 3 0,0-6 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 6 0,0-4 0,0 9 0,0-9 0,-4 4 0,2-6 0,-3 1 0,0-1 0,0 0 0,-1-4 0,-3 3 0,7-4 0,-7 5 0,7 0 0,-3 1 0,4-5 0,1 3 0,-1-3 0,1 5 0,-1-1 0,0 0 0,-4 1 0,4-1 0,-4-4 0,4 4 0,1-4 0,-1 0 0,0 3 0,1-2 0,-1-1 0,-4 3 0,4-7 0,-4 8 0,4-4 0,1 0 0,-5 3 0,3-7 0,-7 8 0,8-8 0,-8 7 0,7-7 0,-3 3 0,0-1 0,2-2 0,-6 7 0,7-7 0,-7 7 0,7-7 0,-3 7 0,0-4 0,-1 5 0,-1-1 0,-2 0 0,7-3 0,-7 3 0,3-3 0,-4 0 0,0-2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T15:52:02.737"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 24575,'9'0'0,"-1"0"0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,2 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-4 0 0,-2 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T15:52:06.736"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'9'0,"0"-1"0,0 2 0,0-1 0,3 0 0,-2-1 0,7-3 0,-7 3 0,8-2 0,-8 3 0,3 0 0,0 1 0,1-1 0,0 0 0,3-4 0,-7 3 0,8-7 0,-4 7 0,0-3 0,3 0 0,-7 4 0,8-4 0,-8 4 0,7-4 0,-7 3 0,7-7 0,-3 7 0,1-3 0,2 0 0,-7 3 0,7-7 0,-3 7 0,0-3 0,4 5 0,-4-1 0,4 0 0,-4 0 0,3 0 0,-7 0 0,2-1 0,-3 1 0,0 0 0,0 0 0,5-4 0,-4 3 0,3-3 0,-4 4 0,0 0 0,3 0 0,-2-1 0,3 1 0,-4 0 0,4 1 0,-3-1 0,3 0 0,-4 0 0,0 0 0,4 0 0,-3-1 0,3 1 0,-4 0 0,0 0 0,4-4 0,-3 4 0,4-5 0,-5 5 0,4-4 0,-3 2 0,7-6 0,-7 7 0,6-3 0,-6 4 0,7-1 0,-8 1 0,8 0 0,-7-1 0,3 1 0,0-4 0,-3 3 0,3-3 0,-4 4 0,0 0 0,0-1 0,0 1 0,4-4 0,-3 3 0,4-3 0,-5 4 0,0-1 0,0 1 0,3-5 0,-2 3 0,3-2 0,0 0 0,-3 2 0,7-6 0,-7 2 0,2-3 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T15:52:27.222"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 77 24575,'14'0'0,"1"0"0,13 0 0,-5 0 0,6 0 0,-1 0 0,-5 0 0,5 0 0,1 0 0,-6 0 0,12 0 0,-12 0 0,6 0 0,-8 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,-4 0 0,3 0 0,-4 0 0,6 0 0,-1 0 0,1 0 0,-6 0 0,4 0 0,-9 0 0,4 0 0,4 0 0,-2 0 0,3 0 0,0 0 0,-3 0 0,-1 0 0,4 0 0,-9 0 0,9 0 0,-9 0 0,9 0 0,-9 0 0,3 0 0,-4 0 0,5 0 0,-5 0 0,5-5 0,-6 4 0,6-3 0,-4 4 0,4 0 0,-1 0 0,-3 0 0,9 0 0,-3 0 0,-1 0 0,4 0 0,-4 0 0,0 0 0,4 0 0,-9 0 0,9 0 0,-4 0 0,1 0 0,3 0 0,-4 0 0,0 0 0,4 0 0,-4 0 0,1-4 0,3 3 0,-4-3 0,5 4 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-6 0 0,4 0 0,-4 0 0,0 0 0,5 0 0,-5 0 0,0 0 0,4 0 0,-4 0 0,6 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,-5 0 0,5 0 0,-5 0 0,0 0 0,4 0 0,-9 0 0,4 0 0,-6 0 0,6 0 0,5 0 0,-3-4 0,8 3 0,-9-4 0,0 5 0,-1 0 0,0-4 0,-5 2 0,5-2 0,-5 4 0,-1 0 0,0 0 0,6 0 0,-4-5 0,4 4 0,-6-3 0,0 4 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-4 0,0 3 0,1-3 0,-1 4 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-4 0,-1 3 0,1-3 0,0 4 0,0 0 0,0-4 0,1 3 0,-1-3 0,0 4 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-4 3 0,2-2 0,-2 3 0,4-4 0,0 0 0,1 0 0,-1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,-5 0 0,0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T15:53:46.308"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'8'0,"0"1"0,0 0 0,0 1 0,0 4 0,0-3 0,0 9 0,0-9 0,0 9 0,0-9 0,0 4 0,0-6 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0 4 0,0-3 0,0 4 0,0-6 0,0 1 0,0-1 0,0 1 0,0-1 0,4 0 0,-3 0 0,2 0 0,-3 0 0,0 0 0,0 0 0,0 0 0,5 1 0,-4-1 0,3 0 0,-4 0 0,4 0 0,-3 0 0,2-1 0,-3 1 0,0-1 0,0 2 0,0-1 0,0 0 0,5-5 0,-4 4 0,3-3 0,-4 3 0,0 0 0,0 1 0,0 0 0,0 0 0,4 1 0,-3-1 0,3 0 0,-4 0 0,0 1 0,0-1 0,0-1 0,0 1 0,0-1 0,0-3 0,0-2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T15:53:53.075"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 24575,'0'14'0,"0"2"0,0 6 0,0-1 0,0-5 0,0 5 0,0-5 0,0 0 0,0-1 0,0-6 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-2 0,0 2 0,0-2 0,0 2 0,0-1 0,0 0 0,5 0 0,-4 1 0,3 5 0,-4-5 0,0 5 0,0-6 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,4 0 0,-3-1 0,2 0 0,-3 0 0,0 1 0,0-1 0,0 0 0,0 0 0,4-3 0,-3 2 0,3-2 0,-4 4 0,0 0 0,4-5 0,-3 4 0,3-3 0,-4 4 0,0-1 0,4-3 0,0-1 0,1-4 0,-1 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T16:16:18.413"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">374 1 24575,'0'8'0,"0"1"0,-4 1 0,3-1 0,-3 0 0,0-4 0,3 3 0,-8-7 0,8 7 0,-7-8 0,3 8 0,-4-3 0,0 0 0,0 3 0,0-7 0,4 7 0,-9-2 0,7 3 0,-7-3 0,4 3 0,1-4 0,-1 0 0,1 3 0,-6-2 0,4 4 0,-3 0 0,5-1 0,-1 0 0,2 0 0,-2 0 0,1 0 0,0-4 0,-1 4 0,1-4 0,0 0 0,-1 4 0,5-4 0,-3 0 0,3-1 0,-1 0 0,-2 2 0,7 3 0,-7-4 0,3 2 0,-4-2 0,0 0 0,4 3 0,-2-7 0,6 6 0,-7-6 0,7 7 0,-3-7 0,4 2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T16:16:21.365"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 24575,'0'9'0,"0"0"0,0 0 0,0 6 0,0-4 0,0 3 0,0-4 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0-3 0,0-2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink19.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T16:16:24.295"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 24575,'0'9'0,"0"-1"0,0 2 0,0-1 0,0 0 0,0 1 0,0-1 0,0-1 0,0 2 0,0-2 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-2 0,0 2 0,0-2 0,0 1 0,0 0 0,0 0 0,0 0 0,4-4 0,-3 3 0,4-3 0,-5 5 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,4-4 0,-3 3 0,3-4 0,-4 5 0,0 0 0,0 0 0,0-1 0,0 1 0,4-5 0,-3 4 0,3-3 0,0 0 0,1-1 0,3-4 0,-4 0 0,0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T15:49:20.495"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2218 221 24575,'9'0'0,"0"0"0,0 0 0,1 4 0,-1-3 0,0 7 0,0-7 0,1 3 0,-1 0 0,0-3 0,0 7 0,0-7 0,1 3 0,-1 0 0,0 1 0,0 1 0,0 2 0,1-7 0,-1 7 0,0-7 0,0 7 0,1-7 0,-1 8 0,0-8 0,1 7 0,-1-3 0,0 0 0,-4 3 0,3-7 0,-7 7 0,7-7 0,-3 7 0,4-3 0,0 0 0,0 3 0,-4-3 0,3-1 0,-7 4 0,7-7 0,-4 3 0,5 0 0,0 1 0,0 4 0,-4 0 0,-1-1 0,0 1 0,1 0 0,0 0 0,3-4 0,-7 3 0,7-3 0,-7 4 0,6-4 0,-2-1 0,3-4 0,-3 3 0,3-2 0,-3 7 0,4-3 0,-4 3 0,2-3 0,-2-1 0,0 0 0,3-3 0,-4 3 0,1 0 0,-1-3 0,-4 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2930">1 0 24575,'0'9'0,"0"5"0,0-3 0,0 3 0,0 1 0,0-4 0,0 4 0,0 0 0,0-5 0,0 5 0,0-6 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,4-1 0,-3 0 0,3 1 0,-4-1 0,0 0 0,0 1 0,4-1 0,-3 0 0,3 0 0,-4 0 0,4 0 0,-3 0 0,2 0 0,-3 0 0,0 0 0,0-1 0,0 1 0,5-4 0,-4 3 0,6-6 0,-6 5 0,3-2 0,-4 3 0,0 0 0,0 1 0,0-1 0,0 0 0,0-3 0,0-2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink20.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T16:16:27.708"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 24575,'0'9'0,"4"-1"0,-3 1 0,7-4 0,-3 3 0,4-3 0,-1 3 0,-3 1 0,3-4 0,-3 2 0,0-2 0,3 4 0,-3 0 0,0 0 0,3-4 0,-7 4 0,3-4 0,1 0 0,-4 3 0,7-7 0,-7 7 0,7-7 0,-7 7 0,8-7 0,-8 8 0,7-4 0,-3 0 0,-1 3 0,4-7 0,-3 6 0,0-2 0,3 0 0,-7 2 0,8-6 0,-8 7 0,7-7 0,-3 6 0,4-6 0,-5 7 0,4-7 0,-4 6 0,5-6 0,-4 7 0,2-7 0,-6 8 0,6-8 0,-6 7 0,7-3 0,-7 4 0,6-5 0,-6 4 0,7-7 0,-7 7 0,6-8 0,-2 4 0,-1-4 0,0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T15:49:33.584"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 5178 24575,'0'-42'0,"6"-3"0,15-19 0,4-2 0,18-9 0,-11-1 0,12 8 0,-14 4 0,5 6 0,-9 12 0,0 1 0,-1 9 0,-6-1 0,2 7 0,-7-5 0,6 12 0,-7-12 0,4 5 0,0-7 0,-3 1 0,9-1 0,-9 0 0,3 1 0,1-1 0,1 0 0,-1 7 0,0-5 0,-1 5 0,-4 1 0,8 0 0,-9 8 0,10-8 0,-10 6 0,10 0 0,-9-4 0,2 8 0,2-4 0,-5 2 0,8 5 0,-8-6 0,4 1 0,-1 4 0,-3-3 0,4 3 0,-6 1 0,5-5 0,-4 11 0,4-11 0,-5 11 0,0-5 0,-1 5 0,-4 1 0,0 0 0,-5 0 0,12-20 0,11-14 0,16-34 0,-2 16 0,-11 18 0,2 1 0,10-10 0,8-15 0,-5 16 0,-6 4 0,-1 8 0,-4 7 0,-5-3 0,-4 12 0,3-12 0,7 3 0,-4-13 0,13 3 0,-11-11 0,3 12 0,1-5 0,-7 8 0,0 7 0,-3-4 0,-6 11 0,5-4 0,-5 12 0,3-4 0,-9 4 0,4-1 0,1-3 0,-6 9 0,6-9 0,-1 4 0,-3-5 0,8-1 0,-2-6 0,4 4 0,1-4 0,11-16 0,-10 16 0,19-25 0,-20 29 0,9-13 0,-10 14 0,0-5 0,-5 6 0,4 1 0,-10 4 0,9-3 0,-8 4 0,8-1 0,-8-3 0,3 8 0,0-3 0,-4 6 0,4-2 0,-17 6 0,4-6 0,-10-7 0,8-10 0,0-8 0,11-1 0,4-8 0,11-1 0,0-1 0,1-5 0,-2 13 0,2-13 0,-2 13 0,-1 1 0,0 3 0,-2 12 0,2-12 0,-2 12 0,1-6 0,0 1 0,-1 5 0,2-12 0,4 10 0,-8-3 0,7 10 0,-15-2 0,8 8 0,-8-3 0,2 9 0,-4-3 0,-1 4 0,0-4 0,1-1 0,5-4 0,1-2 0,0-6 0,5 1 0,-4-1 0,4 0 0,1 1 0,3-5 0,-7 9 0,0-2 0,-3 9 0,-4 5 0,4-4 0,-6 3 0,6-4 0,1 0 0,0 0 0,5-1 0,-5 1 0,5-5 0,1 3 0,0-4 0,-1 1 0,1 3 0,-1-4 0,1 5 0,-6 5 0,4-3 0,-9 3 0,9-4 0,-4 4 0,0-3 0,5 8 0,-5-8 0,0 8 0,-1-8 0,0 3 0,-5-3 0,11-2 0,-1-3 0,2 2 0,4-3 0,-4 4 0,-1 0 0,1 1 0,-6 0 0,4-6 0,-4 5 0,6-5 0,-6 6 0,4-5 0,-9 4 0,9-5 0,-9 7 0,4 3 0,-6-2 0,1 2 0,-1 1 0,0 1 0,1 0 0,-1-1 0,1-5 0,-1 5 0,0-3 0,1 3 0,-1-5 0,1 1 0,-1 4 0,0-4 0,1 4 0,-1 0 0,0 1 0,0 4 0,0 0 0,0 0 0,-1 0 0,1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,-4-9 0,4 7 0,-3-6 0,0 4 0,2 3 0,-2-3 0,4 4 0,-4-4 0,3 3 0,-2-3 0,3 4 0,0 0 0,-1 0 0,-3-4 0,-5 3 0,-5-2 0,-4 3 0,-5 0 0,7 0 0,-2 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T15:49:44.553"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 404 24575,'4'-9'0,"1"0"0,5 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-5-1 0,3 1 0,-2 0 0,3 0 0,-1 0 0,1 0 0,-4 1 0,2 3 0,-6-3 0,8 7 0,-4-7 0,0 3 0,4-1 0,-4-2 0,4 3 0,1-5 0,-1 1 0,0 0 0,1 3 0,-1-2 0,-4 3 0,4 0 0,-8-4 0,7 8 0,-3-7 0,4 7 0,-4-7 0,3 7 0,-3-8 0,1 4 0,2 0 0,-3-3 0,4 7 0,-4-8 0,3 8 0,-7-7 0,7 7 0,-4-3 0,1 1 0,3-2 0,-7-3 0,6-1 0,-1 4 0,-1-3 0,3 2 0,-3-3 0,0 4 0,-1 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2799">33 428 24575,'9'4'0,"0"1"0,0 5 0,0-1 0,1 0 0,-1-3 0,0 2 0,1-7 0,-5 7 0,2-7 0,-6 8 0,7-4 0,-3 4 0,4-5 0,-4 4 0,3-7 0,-3 4 0,0-1 0,4-3 0,-8 7 0,7-7 0,-3 7 0,4-3 0,1 5 0,-1-5 0,-4 3 0,3-7 0,-7 7 0,8-7 0,-5 7 0,6-7 0,-5 7 0,3-7 0,-3 7 0,4-7 0,-4 7 0,3-7 0,-3 4 0,0-1 0,3-3 0,-3 3 0,4 0 0,0-3 0,0 7 0,0-8 0,0 8 0,0-3 0,0 4 0,0-1 0,-1 1 0,0-5 0,-3 4 0,3-7 0,-7 7 0,7-7 0,-7 7 0,2-7 0,-3 2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T15:50:56.094"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1638 24575,'33'0'0,"5"-12"0,16 3 0,1-17 0,-9 12 0,7-6 0,-6 7 0,-1 0 0,7-6 0,-14 5 0,5-5 0,0 0 0,-5 5 0,5-4 0,-14 6 0,5 0 0,-5-5 0,0 4 0,-1-4 0,-1 11 0,-10-3 0,15 3 0,-15 0 0,10-4 0,-6 4 0,0-5 0,-1 0 0,7 0 0,-4 5 0,4-4 0,0 3 0,-5-4 0,12-1 0,-11 1 0,11 4 0,-12-2 0,12 2 0,-5-4 0,6 4 0,1-4 0,-1 10 0,9-11 0,-6 5 0,5 0 0,1 1 0,-6 1 0,5 3 0,-7-8 0,-7 8 0,5-9 0,-5 10 0,0-9 0,5 3 0,-12-4 0,5 0 0,0-1 0,-4 1 0,4 0 0,0 0 0,-4 4 0,4-3 0,-7 4 0,1-5 0,-1 1 0,8 4 0,-6-4 0,5 9 0,-6-9 0,-6 9 0,-1-4 0,0 0 0,-5 4 0,5-4 0,-6 5 0,7 0 0,7 0 0,2 0 0,10-5 0,-5-2 0,0-4 0,5-7 0,-12 6 0,12-6 0,-12 7 0,5 0 0,-6 0 0,-6 1 0,4-1 0,-3 1 0,-1 0 0,4-1 0,-4 1 0,0 0 0,-1 4 0,-5-2 0,-1 3 0,6-1 0,-5-2 0,5 3 0,-5-4 0,-1 3 0,0-2 0,1 3 0,-1-5 0,1 1 0,-1 0 0,0 3 0,1-2 0,-1 7 0,-4-7 0,4 7 0,-4-8 0,4 4 0,6-10 0,1 4 0,6-5 0,-1 6 0,-5-1 0,5-4 0,-5 4 0,0 0 0,4 1 0,-4 4 0,1-4 0,3-1 0,-9 2 0,9-2 0,-9 6 0,9-5 0,-4 4 0,0-4 0,4 4 0,-9-2 0,9 7 0,-4-8 0,1 8 0,3-9 0,-9 5 0,3-1 0,1-3 0,-4 8 0,9-9 0,-4 4 0,1 0 0,3-3 0,-10 3 0,11-4 0,-11 0 0,5 0 0,0 5 0,-4-4 0,4 8 0,-6-7 0,0 7 0,1-7 0,-1 7 0,1-8 0,-1 8 0,0-7 0,1 3 0,-1 0 0,0-4 0,6 3 0,-4 1 0,9-5 0,-9 5 0,9-1 0,-9-2 0,9 7 0,-9-8 0,4 4 0,-1 0 0,3-4 0,-1 4 0,4-6 0,-4 6 0,6-5 0,-6 5 0,4-6 0,-4 6 0,0-4 0,5 3 0,-11 1 0,5-4 0,-6 8 0,1-8 0,-1 8 0,1-3 0,-1 4 0,0-4 0,0 3 0,0-3 0,1 4 0,-1-5 0,6 4 0,-4-3 0,4 4 0,-6-4 0,0 3 0,1-3 0,-1 4 0,0-4 0,1 3 0,-1-3 0,1-1 0,-1 4 0,0-3 0,-4 0 0,4 3 0,-5-3 0,1 0 0,3 3 0,-3-3 0,4 4 0,0 0 0,-1 0 0,1 0 0,-4-3 0,3 2 0,-3-3 0,-1 0 0,4 3 0,-7-3 0,2 4 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T15:51:00.296"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 472 24575,'4'-4'0,"4"3"0,-3-3 0,1-1 0,2 0 0,-3 0 0,0-3 0,3 7 0,-7-8 0,7 8 0,-7-7 0,7 7 0,-7-7 0,7 3 0,-3-4 0,0 0 0,3 4 0,-3-3 0,4 3 0,0 0 0,-4-3 0,4 7 0,-8-7 0,7 2 0,-3 1 0,0-3 0,3 7 0,-7-7 0,7 7 0,-7-8 0,8 4 0,-4-4 0,4 3 0,1-2 0,-1 3 0,1-10 0,0 4 0,0-9 0,0 9 0,0-3 0,0-1 0,-1 4 0,1-4 0,0 6 0,-1 4 0,0 1 0,-3-1 0,2 4 0,-7-6 0,7 6 0,-7-7 0,7 7 0,-7-6 0,7 6 0,-7-7 0,8 7 0,-4-7 0,4 3 0,0-5 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0-1 0,-3 1 0,2 0 0,-3 4 0,0-4 0,-1 8 0,-4-3 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T15:51:03.541"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 24575,'9'0'0,"0"0"0,0 0 0,0 4 0,-3 1 0,2 0 0,-3-1 0,0 1 0,3-4 0,-3 3 0,4-4 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,-3 4 0,3-3 0,-3 7 0,4-3 0,0 0 0,0-1 0,0-4 0,-1 0 0,-3 3 0,3-2 0,-3 3 0,4 0 0,-1-3 0,1 7 0,0-7 0,1 3 0,-1-4 0,-4 4 0,4-3 0,-4 8 0,4-4 0,0 0 0,-4 3 0,4-7 0,-4 3 0,4-4 0,-4 4 0,2-3 0,-6 8 0,7-8 0,-7 7 0,6-7 0,-6 7 0,7-7 0,-7 7 0,7-7 0,-7 6 0,6-6 0,-2 3 0,0-1 0,2-2 0,-6 7 0,6-7 0,-2 2 0,-1 1 0,3-3 0,-6 4 0,3-5 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T15:51:22.761"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'25'0'0,"2"0"0,18 0 0,-7 0 0,7 5 0,0 2 0,-7 6 0,7 0 0,-9-1 0,1 0 0,-1 0 0,1 0 0,0-5 0,-1 4 0,1-4 0,-1 5 0,-6 0 0,5 0 0,-11-6 0,11 5 0,-12-5 0,12 6 0,-5-1 0,6 2 0,9-1 0,-6 1 0,13 0 0,-13 0 0,13 0 0,-13 0 0,14-6 0,-15 4 0,7-10 0,-9 10 0,1-4 0,-1 0 0,-6 3 0,5-9 0,-5 9 0,7-8 0,-1 3 0,1 1 0,7-5 0,-5 10 0,5-10 0,-7 10 0,8-10 0,-7 10 0,0-5 0,-3 1 0,-12 3 0,6-9 0,-8 8 0,1-7 0,-6 7 0,4-8 0,-3 3 0,-1 0 0,4-3 0,-9 3 0,3-4 0,-4 0 0,-5 4 0,10-3 0,4 4 0,12 0 0,6 2 0,-1 10 0,1 2 0,-1 0 0,1-1 0,-7-2 0,-2-3 0,-6 2 0,6-3 0,-5-1 0,5 0 0,-6 0 0,0 0 0,-1 0 0,7 0 0,-4 0 0,4 0 0,-7 0 0,-4-1 0,3 1 0,-4-1 0,0 0 0,4-4 0,-9 2 0,4-2 0,0-1 0,-5 3 0,5-7 0,-5 7 0,4-7 0,-3 8 0,4-8 0,0 8 0,1-8 0,0 4 0,4 0 0,-4-4 0,1 4 0,7-1 0,-12-3 0,7 7 0,-10-7 0,6 8 0,-4-8 0,3 8 0,1-8 0,1 8 0,6-8 0,0 9 0,-1-4 0,1 0 0,-6 3 0,4-8 0,-9 7 0,4-7 0,-6 4 0,0-1 0,1-3 0,-1 3 0,1-4 0,-1 4 0,0-3 0,0 3 0,0 0 0,1-3 0,-1 7 0,0-7 0,1 8 0,-1-8 0,1 7 0,-1-7 0,0 7 0,0-3 0,0 4 0,0-4 0,0 3 0,1-7 0,-1 3 0,1 0 0,-1-3 0,0 4 0,-3-1 0,2-3 0,-3 3 0,4 0 0,1-3 0,-1 8 0,1-4 0,-1 0 0,0 3 0,1-3 0,-1 1 0,0 2 0,1-7 0,-1 7 0,1-7 0,-1 4 0,-4-1 0,3-3 0,-3 3 0,4-4 0,1 4 0,-1-3 0,1 3 0,-1 1 0,0-4 0,1 3 0,-1 0 0,0-3 0,1 3 0,-1-4 0,1 0 0,-1 0 0,0 0 0,1 4 0,-1-3 0,6 3 0,-4 1 0,3-4 0,-4 3 0,-1-4 0,0 4 0,1-3 0,-1 3 0,0-4 0,0 0 0,0 4 0,0-3 0,1 4 0,-1-1 0,0-3 0,1 3 0,-1 0 0,1-3 0,-1 7 0,0-6 0,1 6 0,-1-7 0,0 3 0,1-4 0,-1 4 0,0-3 0,-1 3 0,-3 0 0,3-3 0,-3 3 0,4 0 0,0-3 0,0 3 0,-4 0 0,3-3 0,-4 3 0,2 0 0,1-3 0,-2 3 0,4-1 0,0-2 0,-5 7 0,4-7 0,-4 3 0,5-4 0,-5 4 0,3-4 0,-6 8 0,7-7 0,-3 3 0,4-4 0,-1 0 0,-3 4 0,3-3 0,-3 3 0,4-1 0,-1 2 0,1 4 0,-5-5 0,0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T15:51:27.505"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 94 24575,'8'0'0,"1"0"0,1 0 0,-1 0 0,6 0 0,-4 0 0,3 0 0,-4 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,6-5 0,-4 4 0,9-4 0,-9 5 0,4 0 0,-6 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1-4 0,0 3 0,0-3 0,0 4 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-4 0,0 3 0,1-3 0,-1 0 0,0 3 0,0-4 0,1 5 0,-1 0 0,0 0 0,0 0 0,0 0 0,1-4 0,-2 3 0,1-3 0,0 4 0,0 0 0,-4-4 0,3 3 0,-4-2 0,5 3 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,-3-5 0,3 4 0,-2-3 0,-1 0 0,3 3 0,-3-3 0,0 0 0,3 3 0,-3-4 0,0 2 0,3 2 0,-3-3 0,3 4 0,-3 0 0,-1 0 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -982,97 +2821,97 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="38"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="41"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="44"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32"/>
       <c r="N5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
       <c r="O6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="38"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
@@ -1103,34 +2942,34 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1148,18 +2987,18 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="3"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1170,94 +3009,94 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="6"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="35" t="s">
+      <c r="I17" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
       <c r="L17" s="6"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="6"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="28"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="42"/>
       <c r="L18" s="6"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="6"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="31"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="45"/>
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="6"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="31"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="45"/>
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="6"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="31"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="45"/>
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="6"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="31"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="45"/>
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
       <c r="F23" s="6"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="48"/>
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
@@ -1274,18 +3113,18 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="29"/>
       <c r="F25" s="6"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="29"/>
       <c r="L25" s="6"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
@@ -1514,11 +3353,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:L4"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="B5:L7"/>
@@ -1528,6 +3362,11 @@
     <mergeCell ref="I18:K23"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B2:L4"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -1538,669 +3377,536 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB919AC-FB1D-484E-A614-7746BC43EB3E}">
-  <dimension ref="A3:S27"/>
+  <dimension ref="B3:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" customWidth="1"/>
-    <col min="15" max="15" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.33203125" customWidth="1"/>
-    <col min="17" max="17" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" customWidth="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="E3" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="I3" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15"/>
-      <c r="M3" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="15"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J3" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="28"/>
+      <c r="L3" s="29"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J4" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="J11" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="F12" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="J12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="F13" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="F14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="J14" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="F15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="F16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="F17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="J17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
+      <c r="N17" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="28"/>
+      <c r="P17" s="29"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="F18" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="J18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="F19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="J19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="F20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="J20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="J21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" t="s">
+      <c r="K21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="L21" s="6"/>
+      <c r="N21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="D22" s="6"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="J22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="L22" s="9"/>
+      <c r="N22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="N23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
+      <c r="O23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="N24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="E5" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="I5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="O24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="N25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="2:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="J26" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="28"/>
+      <c r="L26" s="29"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="J27" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="E6" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L27" s="53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="J28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="L28" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" s="4" t="s">
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="J29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="J30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="E7" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="I7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="9"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="E8" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="E9" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="I9" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="M9" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="15"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="E10" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="I10" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="E11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="I11" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="6"/>
-      <c r="I12" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="6"/>
-      <c r="I13" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="9"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="9"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="6"/>
-      <c r="I15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
-      <c r="M15" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="N15" s="14"/>
-      <c r="O15" s="15"/>
-      <c r="Q15" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="R15" s="49"/>
-      <c r="S15" s="48"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="6"/>
-      <c r="I16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S16" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="6"/>
-      <c r="I17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O17" s="6"/>
-      <c r="Q17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S17" s="6"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="6"/>
-      <c r="I18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="6"/>
-      <c r="M18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="6"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="6"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="6"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="6"/>
-      <c r="I19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="6"/>
-      <c r="M19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="6"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="6"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="6"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="6"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="6"/>
-      <c r="M20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" s="6"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="6"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="6"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="6"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="6"/>
-      <c r="M21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O21" s="6"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="6"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="9"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="9"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="9"/>
-      <c r="M22" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="9"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I24" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
-      <c r="M24" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N24" s="14"/>
-      <c r="O24" s="15"/>
-      <c r="Q24" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="R24" s="14"/>
-      <c r="S24" s="15"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S25" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O26" s="6"/>
-      <c r="Q26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S26" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="9"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="9"/>
-      <c r="Q27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="S27" s="9"/>
+      <c r="L30" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="I9:K9"/>
+  <mergeCells count="7">
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/planning/pokemon_planning.xlsx
+++ b/planning/pokemon_planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ma55700/Desktop/sei/projects/pokemon/pokemon-backend/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8A974B-E139-2848-AA12-656AB04A1AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AAE8D7-B751-4D49-B7E7-5C231F8A0AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{7E3DD1EE-BB5A-DD4E-9A77-B0B5B75F088C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{7E3DD1EE-BB5A-DD4E-9A77-B0B5B75F088C}"/>
   </bookViews>
   <sheets>
     <sheet name="Wireframe" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="74">
   <si>
     <t>{ Dropdown or Search }</t>
   </si>
@@ -122,39 +122,15 @@
     <t>string</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>Types</t>
   </si>
   <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>accuracy</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
     <t>order</t>
   </si>
   <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>FK to Moves</t>
-  </si>
-  <si>
     <t>boolean</t>
   </si>
   <si>
-    <t>Moves</t>
-  </si>
-  <si>
     <t>Abilities</t>
   </si>
   <si>
@@ -239,24 +215,9 @@
     <t>isHidden</t>
   </si>
   <si>
-    <t>pokemonMovesId</t>
-  </si>
-  <si>
-    <t>moveId</t>
-  </si>
-  <si>
     <t>typeName</t>
   </si>
   <si>
-    <t>moveName</t>
-  </si>
-  <si>
-    <t>targetName</t>
-  </si>
-  <si>
-    <t>MoveDetails</t>
-  </si>
-  <si>
     <t>Pokemon</t>
   </si>
   <si>
@@ -272,13 +233,31 @@
     <t>typesId</t>
   </si>
   <si>
-    <t>FK to MoveDetails</t>
-  </si>
-  <si>
     <t>FK to Pokemon</t>
   </si>
   <si>
     <t>FK to Pokemon Species</t>
+  </si>
+  <si>
+    <t>As a user, I want to see a high-res picture of the Pokémon, so that I can see for sure which one is the one I chose.</t>
+  </si>
+  <si>
+    <t>As a user, I want to see generation of Pokémon, so I know how long a species has been around.</t>
+  </si>
+  <si>
+    <t>As a user, I want to quickly see stats for each Pokémon, so that I don't have to spend a lot of time searching.</t>
+  </si>
+  <si>
+    <t>As a user, I would like a quick live-search to identify a Pokémon by name, so that they are easy to find.</t>
+  </si>
+  <si>
+    <t>As a developer, I want to be sure images are cached and easy to fetch, so that the display page loads quickly.</t>
+  </si>
+  <si>
+    <t>As a developer, I want to be sure the API continues to work correctly with new data, so that users get current info.</t>
+  </si>
+  <si>
+    <t>As a user, I do not care about styling and would prefer a basic, no-nonsense style, so that I can focus on the data.</t>
   </si>
 </sst>
 </file>
@@ -525,108 +504,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -639,6 +516,108 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,8 +651,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>16160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="28" name="Ink 27">
@@ -692,7 +671,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="28" name="Ink 27">
@@ -737,8 +716,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>115880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="31" name="Ink 30">
@@ -757,7 +736,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="31" name="Ink 30">
@@ -802,8 +781,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>10000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="32" name="Ink 31">
@@ -822,7 +801,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="32" name="Ink 31">
@@ -867,8 +846,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>117640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="35" name="Ink 34">
@@ -887,7 +866,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="35" name="Ink 34">
@@ -932,8 +911,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>202600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="39" name="Ink 38">
@@ -952,7 +931,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="39" name="Ink 38">
@@ -997,8 +976,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>61440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="40" name="Ink 39">
@@ -1017,7 +996,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="40" name="Ink 39">
@@ -1062,8 +1041,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>142800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="41" name="Ink 40">
@@ -1082,7 +1061,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="41" name="Ink 40">
@@ -1117,721 +1096,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>31620</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>15280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1579620</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>83000</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="45" name="Ink 44">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49120D7-6D21-4F4E-83C3-4B92629EE6CF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="7537320" y="3469680"/>
-            <a:ext cx="1548000" cy="474120"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="45" name="Ink 44">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49120D7-6D21-4F4E-83C3-4B92629EE6CF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7533000" y="3465360"/>
-              <a:ext cx="1556640" cy="482760"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1333380</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>21640</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>196560</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="46" name="Ink 45">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567616AE-DE72-F944-A18F-4F994BB927D9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="8839080" y="3819960"/>
-            <a:ext cx="275760" cy="34200"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="46" name="Ink 45">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567616AE-DE72-F944-A18F-4F994BB927D9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8834760" y="3815640"/>
-              <a:ext cx="284400" cy="42840"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1354260</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>7040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>10480</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>198920</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="47" name="Ink 46">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57AFCFF0-DCF4-BF4C-A893-DEE4EDCF92D3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="8859960" y="3867840"/>
-            <a:ext cx="243720" cy="191880"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="47" name="Ink 46">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57AFCFF0-DCF4-BF4C-A893-DEE4EDCF92D3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8855640" y="3863520"/>
-              <a:ext cx="252360" cy="200520"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>26940</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1582140</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>128940</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="51" name="Ink 50">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF6B433-7114-5642-A221-9147386D0DBA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="7532640" y="3799080"/>
-            <a:ext cx="1555200" cy="1854360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="51" name="Ink 50">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF6B433-7114-5642-A221-9147386D0DBA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7528320" y="3794760"/>
-              <a:ext cx="1563840" cy="1863000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1452900</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>201460</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>27760</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>201820</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="52" name="Ink 51">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67BB8A11-87EA-6542-AE25-16F924D13C8C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="8958600" y="5522760"/>
-            <a:ext cx="162360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="52" name="Ink 51">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67BB8A11-87EA-6542-AE25-16F924D13C8C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8954280" y="5518440"/>
-              <a:ext cx="171000" cy="9000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1468380</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>15900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1582860</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>69380</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="53" name="Ink 52">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884A9187-7502-E942-8F1D-547A8A6439CB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="8974080" y="5540400"/>
-            <a:ext cx="114480" cy="256680"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="53" name="Ink 52">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884A9187-7502-E942-8F1D-547A8A6439CB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8969760" y="5536080"/>
-              <a:ext cx="123120" cy="265320"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>30400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>198360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>12620</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>22880</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="57" name="Ink 56">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBEEAC43-5D8A-074C-B9E4-A761C387FE8F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="12171600" y="3855960"/>
-            <a:ext cx="960120" cy="27720"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="57" name="Ink 56">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBEEAC43-5D8A-074C-B9E4-A761C387FE8F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="12167280" y="3851640"/>
-              <a:ext cx="968760" cy="36360"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>775960</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>792880</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>141320</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="59" name="Ink 58">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2311435E-31BC-0D43-9BE8-F6DC3CD8F6EE}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="12917160" y="3771360"/>
-            <a:ext cx="16920" cy="230760"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="59" name="Ink 58">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2311435E-31BC-0D43-9BE8-F6DC3CD8F6EE}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="12912840" y="3767040"/>
-              <a:ext cx="25560" cy="239400"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>174760</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>118080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>194200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>157520</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="60" name="Ink 59">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39A615A-3BFC-FC4F-9AF9-64F368952951}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="12315960" y="3775680"/>
-            <a:ext cx="19440" cy="242640"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="60" name="Ink 59">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39A615A-3BFC-FC4F-9AF9-64F368952951}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="12311640" y="3771360"/>
-              <a:ext cx="28080" cy="251280"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>40620</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>88760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>175620</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>7960</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="61" name="Ink 60">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7EA380-3AC6-D649-9A9E-43897523E8B6}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="7546320" y="3949560"/>
-            <a:ext cx="135000" cy="122400"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="61" name="Ink 60">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7EA380-3AC6-D649-9A9E-43897523E8B6}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7542000" y="3945240"/>
-              <a:ext cx="143640" cy="131040"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>172740</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>158000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>173100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142720</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="62" name="Ink 61">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14FF828F-7CDF-5345-A1E5-1B1CD03D5368}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="7678440" y="3409200"/>
-            <a:ext cx="360" cy="187920"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="62" name="Ink 61">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14FF828F-7CDF-5345-A1E5-1B1CD03D5368}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7674120" y="3404880"/>
-              <a:ext cx="9000" cy="196560"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
       <xdr:colOff>145380</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>77320</xdr:rowOff>
@@ -1842,9 +1106,9 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>51600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="63" name="Ink 62">
               <a:extLst>
@@ -1862,7 +1126,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="63" name="Ink 62">
@@ -1907,8 +1171,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>15920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="64" name="Ink 63">
@@ -1927,7 +1191,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="64" name="Ink 63">
@@ -1949,6 +1213,266 @@
             <a:xfrm>
               <a:off x="7603200" y="2541600"/>
               <a:ext cx="113760" cy="120240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>21960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1565640</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123480</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5A0E099-65E0-0540-9BD0-E3FB2AA9C5A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7337160" y="3696480"/>
+            <a:ext cx="1543680" cy="84600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5A0E099-65E0-0540-9BD0-E3FB2AA9C5A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7332840" y="3692160"/>
+              <a:ext cx="1552320" cy="93240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1400400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>162880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1577880</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>41400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8040ACD-D9FE-A74B-868C-17536EF2382E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8715600" y="3617280"/>
+            <a:ext cx="177480" cy="81720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8040ACD-D9FE-A74B-868C-17536EF2382E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8711280" y="3612960"/>
+              <a:ext cx="186120" cy="90360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1403640</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>16660</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>167040</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D648D7B-F046-8344-BA37-0364829F17BC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8718840" y="3720240"/>
+            <a:ext cx="200520" cy="104400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D648D7B-F046-8344-BA37-0364829F17BC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8714520" y="3715920"/>
+              <a:ext cx="209160" cy="113040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>35280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>176760</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15680</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A79BA74-FC4B-0947-BBAC-06B39B2AD0C9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7463520" y="3692880"/>
+            <a:ext cx="28440" cy="183600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A79BA74-FC4B-0947-BBAC-06B39B2AD0C9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7459200" y="3688560"/>
+              <a:ext cx="37080" cy="192240"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2006,14 +1530,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T15:51:31.417"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-10-04T17:32:16.356"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.025" units="cm"/>
       <inkml:brushProperty name="height" value="0.025" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 24575,'0'13'0,"0"0"0,4-4 0,1 0 0,5 1 0,-5-1 0,3 1 0,-2-1 0,3 0 0,0 1 0,1-5 0,-1 3 0,0-3 0,1 1 0,-1 2 0,1-7 0,-1 7 0,0-2 0,1-1 0,-5 3 0,3-3 0,-3 1 0,5 2 0,-1-7 0,-4 7 0,4-7 0,-4 8 0,4-8 0,-4 7 0,3-7 0,-3 7 0,4-3 0,0 0 0,0 3 0,1-2 0,-1-1 0,6 4 0,-4-4 0,3 5 0,-4 0 0,-1-5 0,1 3 0,-1-3 0,0 0 0,1 4 0,-1-8 0,-4 7 0,4-7 0,-4 8 0,4-8 0,0 7 0,0-3 0,0 4 0,0-4 0,0-1 0,0 0 0,1 1 0,-1 0 0,1 3 0,-1-3 0,0 5 0,0-2 0,0-3 0,-4 3 0,3-6 0,-3 6 0,4-3 0,0 0 0,-4 3 0,3-7 0,-7 7 0,8-7 0,-8 7 0,7-7 0,-3 3 0,0 0 0,3-3 0,-7 7 0,7-3 0,-7 4 0,7-4 0,-7 2 0,6-6 0,-2 3 0,3-4 0,0 0 0,0 3 0,0 2 0,-7-1 0,2 0 0,-7-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 198 24575,'33'0'0,"-3"0"0,14 0 0,-7 0 0,-1 6 0,1 0 0,7 1 0,-5 4 0,38-10 0,-32 5 0,24-6 0,-39 0 0,5 0 0,-5 0 0,7 0 0,-7 0 0,5 0 0,-5 0 0,0 0 0,5 0 0,-5 0 0,6 0 0,-6 0 0,5 0 0,-11 0 0,10 0 0,-4 0 0,7 0 0,0 0 0,-1 0 0,1 0 0,-7 0 0,5 0 0,-12 0 0,12 0 0,-12 0 0,12 0 0,-12 0 0,12 0 0,-5 0 0,0 0 0,5 0 0,-5 0 0,15 0 0,-7-6 0,15 5 0,-15-10 0,15 4 0,-7-6 0,1 0 0,-3 0 0,-7 1 0,0 0 0,-1 5 0,1-4 0,0 4 0,-1-5 0,-6 5 0,5-4 0,-11 10 0,4-9 0,0 9 0,-5-4 0,6 5 0,-1 0 0,-5 0 0,5 0 0,-6 0 0,0 0 0,6 0 0,-5 0 0,5 0 0,-6 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-6 0 0,4 0 0,-3 0 0,4 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-6 0 0,4 0 0,-9 0 0,4 0 0,0 0 0,-5 0 0,5 0 0,-6 0 0,1 0 0,-1 0 0,5 0 0,-4 0 0,4 0 0,0 0 0,-3 0 0,9 0 0,-3 0 0,4 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-6 0 0,4 0 0,-9 0 0,4 0 0,-6 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,6 0 0,1 0 0,1 0 0,3-5 0,0-1 0,3 0 0,3 1 0,-10 5 0,4 0 0,-4 0 0,0 0 0,5 0 0,-11 0 0,10 0 0,-3 0 0,-1 0 0,4 0 0,-9 0 0,3 0 0,-4 4 0,-1-3 0,1 3 0,-1-4 0,0 0 0,-4 5 0,3-4 0,-3 3 0,4-4 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 4 0,1-3 0,-1 3 0,0-4 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 4 0,1-3 0,-4 7 0,3-7 0,-10 2 0,5-12 0,-11-3 0,-5-24 0,5 20 0,-4-8 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2033,14 +1557,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T15:51:59.597"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-10-04T17:32:19.540"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.025" units="cm"/>
       <inkml:brushProperty name="height" value="0.025" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'7'51'0,"16"16"0,11 21 0,7 0-1336,4-2 1336,-4-1 0,-13-39 0,1 0 0,-4-1 0,0-1 0,3 1 0,1 0 0,25 32 0,-7-1 0,14-4 0,-8-5 0,1-7 0,7 10 0,-7-14 0,-22-17 0,1 0 0,28 17 0,1 14 0,-1-10 0,-8 1 0,6-1 0,-6 0 0,1 0 401,-4-8-401,-5 6 229,-4-15-229,-5 5 0,1-15 0,-17-4 679,7-7-679,-10 0 27,-1-6-27,4 4 0,-9-4 0,10 1 0,-9 4 0,8-5 0,-3 6 0,-1-6 0,4 4 0,-9-9 0,9 4 0,-9-5 0,4 0 0,-6-1 0,-4 1 0,3-1 0,-7 0 0,4 7 0,21 17 0,1 11 0,25 16 0,-7 0 0,-2-8 0,2 6 0,-11-17 0,7 8 0,-16-18 0,14 7 0,-14-7 0,12 2 0,-11 2 0,11-2 0,-12-2 0,6 6 0,-9-14 0,2 12 0,-2-12 0,1 5 0,0 1 0,-1-6 0,1 5 0,-2-6 0,-4 0 0,4-1 0,-5 1 0,1-6 0,3 4 0,-4-9 0,5 10 0,-4-10 0,3 9 0,-4-8 0,5 8 0,1-3 0,0-1 0,-1 5 0,10 5 0,-6 5 0,7 2 0,-8 1 0,5-9 0,-4 10 0,4-10 0,-6 3 0,-2-6 0,2 6 0,-1-5 0,1 5 0,-1-6 0,6 1 0,-5-1 0,7 7 0,-8-5 0,0 4 0,1 0 0,-1-5 0,1 6 0,-1-8 0,-1 1 0,1-1 0,-1 1 0,-4-1 0,-2-4 0,0 3 0,-4-9 0,4 3 0,-6-4 0,-3-1 0,1-4 0,5 3 0,5 9 0,6 1 0,0 10 0,5-5 0,-10-7 0,9 6 0,-11-6 0,6 5 0,-1 1 0,-4-1 0,4 1 0,-9 0 0,3-1 0,-5-5 0,1 5 0,-1-11 0,0 5 0,-1-5 0,1 4 0,-1-3 0,1 4 0,5 0 0,-4-5 0,4 5 0,0 0 0,-5-4 0,5 3 0,0-4 0,-4 5 0,4-3 0,-5 3 0,0-6 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 6 0,0-4 0,0 9 0,0-9 0,-4 4 0,2-6 0,-3 1 0,0-1 0,0 0 0,-1-4 0,-3 3 0,7-4 0,-7 5 0,7 0 0,-3 1 0,4-5 0,1 3 0,-1-3 0,1 5 0,-1-1 0,0 0 0,-4 1 0,4-1 0,-4-4 0,4 4 0,1-4 0,-1 0 0,0 3 0,1-2 0,-1-1 0,-4 3 0,4-7 0,-4 8 0,4-4 0,1 0 0,-5 3 0,3-7 0,-7 8 0,8-8 0,-8 7 0,7-7 0,-3 3 0,0-1 0,2-2 0,-6 7 0,7-7 0,-7 7 0,7-7 0,-3 7 0,0-4 0,-1 5 0,-1-1 0,-2 0 0,7-3 0,-7 3 0,3-3 0,-4 0 0,0-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 227 24575,'9'0'0,"0"0"0,5 0 0,-3 0 0,4 0 0,0 0 0,-5 0 0,5 0 0,-5-4 0,-1 2 0,0-2 0,1 4 0,-1-4 0,0 3 0,1-7 0,-1 7 0,1-8 0,-1 8 0,0-7 0,1 7 0,-1-7 0,0 7 0,1-8 0,-1 8 0,1-7 0,-1 7 0,0-7 0,1 6 0,-1-2 0,0 0 0,1 3 0,-1-3 0,-4 0 0,4 3 0,-4-7 0,4 3 0,-5-4 0,4 4 0,-7-2 0,8 6 0,-5-3 0,2 0 0,1 3 0,-6-8 0,8 8 0,-4-3 0,0 0 0,4 3 0,-5-7 0,5 7 0,-4-7 0,3 7 0,-7-7 0,6 7 0,-6-6 0,7 6 0,-3-7 0,3 7 0,-3-6 0,3 6 0,-8-7 0,4 7 0,-4-2 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2060,14 +1584,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T15:52:02.737"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-10-04T17:32:22.558"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.025" units="cm"/>
       <inkml:brushProperty name="height" value="0.025" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 24575,'9'0'0,"-1"0"0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,2 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-4 0 0,-2 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 24575,'13'0'0,"0"0"0,-4 0 0,0 0 0,1 4 0,-1-3 0,0 7 0,1-3 0,-1 1 0,6 3 0,-4-4 0,9 1 0,-9-2 0,4-4 0,-1 5 0,-3-4 0,4 4 0,0-5 0,-5 4 0,5-3 0,0 8 0,-4-8 0,4 8 0,-6-4 0,6 1 0,-4 2 0,3-3 0,-4 4 0,-1-3 0,0 2 0,1-3 0,-1 4 0,-4 1 0,3-6 0,-7 5 0,7-4 0,-7 4 0,8-4 0,-8 3 0,7-7 0,-3 3 0,3 0 0,1 0 0,-1 5 0,-3 0 0,3-4 0,-7 3 0,7-7 0,-3 3 0,4-4 0,-4 4 0,2-3 0,-2 3 0,4-4 0,-4 4 0,3-3 0,-7 7 0,6-7 0,-6 7 0,7-7 0,-7 8 0,7-9 0,-7 4 0,2-4 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2087,176 +1611,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T15:52:06.736"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-10-04T17:32:37.421"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.025" units="cm"/>
       <inkml:brushProperty name="height" value="0.025" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'9'0,"0"-1"0,0 2 0,0-1 0,3 0 0,-2-1 0,7-3 0,-7 3 0,8-2 0,-8 3 0,3 0 0,0 1 0,1-1 0,0 0 0,3-4 0,-7 3 0,8-7 0,-4 7 0,0-3 0,3 0 0,-7 4 0,8-4 0,-8 4 0,7-4 0,-7 3 0,7-7 0,-3 7 0,1-3 0,2 0 0,-7 3 0,7-7 0,-3 7 0,0-3 0,4 5 0,-4-1 0,4 0 0,-4 0 0,3 0 0,-7 0 0,2-1 0,-3 1 0,0 0 0,0 0 0,5-4 0,-4 3 0,3-3 0,-4 4 0,0 0 0,3 0 0,-2-1 0,3 1 0,-4 0 0,4 1 0,-3-1 0,3 0 0,-4 0 0,0 0 0,4 0 0,-3-1 0,3 1 0,-4 0 0,0 0 0,4-4 0,-3 4 0,4-5 0,-5 5 0,4-4 0,-3 2 0,7-6 0,-7 7 0,6-3 0,-6 4 0,7-1 0,-8 1 0,8 0 0,-7-1 0,3 1 0,0-4 0,-3 3 0,3-3 0,-4 4 0,0 0 0,0-1 0,0 1 0,4-4 0,-3 3 0,4-3 0,-5 4 0,0-1 0,0 1 0,3-5 0,-2 3 0,3-2 0,0 0 0,-3 2 0,7-6 0,-7 2 0,2-3 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T15:52:27.222"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.025" units="cm"/>
-      <inkml:brushProperty name="height" value="0.025" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 77 24575,'14'0'0,"1"0"0,13 0 0,-5 0 0,6 0 0,-1 0 0,-5 0 0,5 0 0,1 0 0,-6 0 0,12 0 0,-12 0 0,6 0 0,-8 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,-4 0 0,3 0 0,-4 0 0,6 0 0,-1 0 0,1 0 0,-6 0 0,4 0 0,-9 0 0,4 0 0,4 0 0,-2 0 0,3 0 0,0 0 0,-3 0 0,-1 0 0,4 0 0,-9 0 0,9 0 0,-9 0 0,9 0 0,-9 0 0,3 0 0,-4 0 0,5 0 0,-5 0 0,5-5 0,-6 4 0,6-3 0,-4 4 0,4 0 0,-1 0 0,-3 0 0,9 0 0,-3 0 0,-1 0 0,4 0 0,-4 0 0,0 0 0,4 0 0,-9 0 0,9 0 0,-4 0 0,1 0 0,3 0 0,-4 0 0,0 0 0,4 0 0,-4 0 0,1-4 0,3 3 0,-4-3 0,5 4 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-6 0 0,4 0 0,-4 0 0,0 0 0,5 0 0,-5 0 0,0 0 0,4 0 0,-4 0 0,6 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,-5 0 0,5 0 0,-5 0 0,0 0 0,4 0 0,-9 0 0,4 0 0,-6 0 0,6 0 0,5 0 0,-3-4 0,8 3 0,-9-4 0,0 5 0,-1 0 0,0-4 0,-5 2 0,5-2 0,-5 4 0,-1 0 0,0 0 0,6 0 0,-4-5 0,4 4 0,-6-3 0,0 4 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-4 0,0 3 0,1-3 0,-1 4 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-4 0,-1 3 0,1-3 0,0 4 0,0 0 0,0-4 0,1 3 0,-1-3 0,0 4 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-4 3 0,2-2 0,-2 3 0,4-4 0,0 0 0,1 0 0,-1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,-5 0 0,0 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T15:53:46.308"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.025" units="cm"/>
-      <inkml:brushProperty name="height" value="0.025" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'8'0,"0"1"0,0 0 0,0 1 0,0 4 0,0-3 0,0 9 0,0-9 0,0 9 0,0-9 0,0 4 0,0-6 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0 4 0,0-3 0,0 4 0,0-6 0,0 1 0,0-1 0,0 1 0,0-1 0,4 0 0,-3 0 0,2 0 0,-3 0 0,0 0 0,0 0 0,0 0 0,5 1 0,-4-1 0,3 0 0,-4 0 0,4 0 0,-3 0 0,2-1 0,-3 1 0,0-1 0,0 2 0,0-1 0,0 0 0,5-5 0,-4 4 0,3-3 0,-4 3 0,0 0 0,0 1 0,0 0 0,0 0 0,4 1 0,-3-1 0,3 0 0,-4 0 0,0 1 0,0-1 0,0-1 0,0 1 0,0-1 0,0-3 0,0-2 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T15:53:53.075"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.025" units="cm"/>
-      <inkml:brushProperty name="height" value="0.025" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 24575,'0'14'0,"0"2"0,0 6 0,0-1 0,0-5 0,0 5 0,0-5 0,0 0 0,0-1 0,0-6 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-2 0,0 2 0,0-2 0,0 2 0,0-1 0,0 0 0,5 0 0,-4 1 0,3 5 0,-4-5 0,0 5 0,0-6 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,4 0 0,-3-1 0,2 0 0,-3 0 0,0 1 0,0-1 0,0 0 0,0 0 0,4-3 0,-3 2 0,3-2 0,-4 4 0,0 0 0,4-5 0,-3 4 0,3-3 0,-4 4 0,0-1 0,4-3 0,0-1 0,1-4 0,-1 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T16:16:18.413"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.025" units="cm"/>
-      <inkml:brushProperty name="height" value="0.025" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">374 1 24575,'0'8'0,"0"1"0,-4 1 0,3-1 0,-3 0 0,0-4 0,3 3 0,-8-7 0,8 7 0,-7-8 0,3 8 0,-4-3 0,0 0 0,0 3 0,0-7 0,4 7 0,-9-2 0,7 3 0,-7-3 0,4 3 0,1-4 0,-1 0 0,1 3 0,-6-2 0,4 4 0,-3 0 0,5-1 0,-1 0 0,2 0 0,-2 0 0,1 0 0,0-4 0,-1 4 0,1-4 0,0 0 0,-1 4 0,5-4 0,-3 0 0,3-1 0,-1 0 0,-2 2 0,7 3 0,-7-4 0,3 2 0,-4-2 0,0 0 0,4 3 0,-2-7 0,6 6 0,-7-6 0,7 7 0,-3-7 0,4 2 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T16:16:21.365"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.025" units="cm"/>
-      <inkml:brushProperty name="height" value="0.025" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 24575,'0'9'0,"0"0"0,0 0 0,0 6 0,0-4 0,0 3 0,0-4 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0-3 0,0-2 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink19.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T16:16:24.295"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.025" units="cm"/>
-      <inkml:brushProperty name="height" value="0.025" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 24575,'0'9'0,"0"-1"0,0 2 0,0-1 0,0 0 0,0 1 0,0-1 0,0-1 0,0 2 0,0-2 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-2 0,0 2 0,0-2 0,0 1 0,0 0 0,0 0 0,0 0 0,4-4 0,-3 3 0,4-3 0,-5 5 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,4-4 0,-3 3 0,3-4 0,-4 5 0,0 0 0,0 0 0,0-1 0,0 1 0,4-5 0,-3 4 0,3-3 0,0 0 0,1-1 0,3-4 0,-4 0 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 24575,'0'9'0,"0"5"0,0-3 0,0 4 0,0 0 0,0-5 0,0 5 0,0 0 0,0-4 0,0 3 0,0 1 0,0-4 0,0 4 0,0-6 0,0 1 0,0-1 0,0 6 0,0-5 0,5 5 0,-4-5 0,3-1 0,-4 0 0,0 1 0,0 4 0,0 3 0,4-1 0,-3-1 0,3-6 0,-4 0 0,0 1 0,0-1 0,4 0 0,-3 0 0,6-1 0,-6 0 0,3 1 0,-4-1 0,3 1 0,-2-1 0,3 1 0,-4-1 0,0 0 0,0 0 0,4-3 0,-3 2 0,3-2 0,0-1 0,-3 4 0,7-7 0,-4 2 0,1-3 0,-1 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2285,33 +1647,6 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">2218 221 24575,'9'0'0,"0"0"0,0 0 0,1 4 0,-1-3 0,0 7 0,0-7 0,1 3 0,-1 0 0,0-3 0,0 7 0,0-7 0,1 3 0,-1 0 0,0 1 0,0 1 0,0 2 0,1-7 0,-1 7 0,0-7 0,0 7 0,1-7 0,-1 8 0,0-8 0,1 7 0,-1-3 0,0 0 0,-4 3 0,3-7 0,-7 7 0,7-7 0,-3 7 0,4-3 0,0 0 0,0 3 0,-4-3 0,3-1 0,-7 4 0,7-7 0,-4 3 0,5 0 0,0 1 0,0 4 0,-4 0 0,-1-1 0,0 1 0,1 0 0,0 0 0,3-4 0,-7 3 0,7-3 0,-7 4 0,6-4 0,-2-1 0,3-4 0,-3 3 0,3-2 0,-3 7 0,4-3 0,-4 3 0,2-3 0,-2-1 0,0 0 0,3-3 0,-4 3 0,1 0 0,-1-3 0,-4 2 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2930">1 0 24575,'0'9'0,"0"5"0,0-3 0,0 3 0,0 1 0,0-4 0,0 4 0,0 0 0,0-5 0,0 5 0,0-6 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,4-1 0,-3 0 0,3 1 0,-4-1 0,0 0 0,0 1 0,4-1 0,-3 0 0,3 0 0,-4 0 0,4 0 0,-3 0 0,2 0 0,-3 0 0,0 0 0,0-1 0,0 1 0,5-4 0,-4 3 0,6-6 0,-6 5 0,3-2 0,-4 3 0,0 0 0,0 1 0,0-1 0,0 0 0,0-3 0,0-2 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink20.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T16:16:27.708"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.025" units="cm"/>
-      <inkml:brushProperty name="height" value="0.025" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 24575,'0'9'0,"4"-1"0,-3 1 0,7-4 0,-3 3 0,4-3 0,-1 3 0,-3 1 0,3-4 0,-3 2 0,0-2 0,3 4 0,-3 0 0,0 0 0,3-4 0,-7 4 0,3-4 0,1 0 0,-4 3 0,7-7 0,-7 7 0,7-7 0,-7 7 0,8-7 0,-8 8 0,7-4 0,-3 0 0,-1 3 0,4-7 0,-3 6 0,0-2 0,3 0 0,-7 2 0,8-6 0,-8 7 0,7-7 0,-3 6 0,4-6 0,-5 7 0,4-7 0,-4 6 0,5-6 0,-4 7 0,2-7 0,-6 8 0,6-8 0,-6 7 0,7-3 0,-7 4 0,6-5 0,-6 4 0,7-7 0,-7 7 0,6-8 0,-2 4 0,-1-4 0,0 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2467,14 +1802,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T15:51:22.761"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T16:16:24.295"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.025" units="cm"/>
       <inkml:brushProperty name="height" value="0.025" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'25'0'0,"2"0"0,18 0 0,-7 0 0,7 5 0,0 2 0,-7 6 0,7 0 0,-9-1 0,1 0 0,-1 0 0,1 0 0,0-5 0,-1 4 0,1-4 0,-1 5 0,-6 0 0,5 0 0,-11-6 0,11 5 0,-12-5 0,12 6 0,-5-1 0,6 2 0,9-1 0,-6 1 0,13 0 0,-13 0 0,13 0 0,-13 0 0,14-6 0,-15 4 0,7-10 0,-9 10 0,1-4 0,-1 0 0,-6 3 0,5-9 0,-5 9 0,7-8 0,-1 3 0,1 1 0,7-5 0,-5 10 0,5-10 0,-7 10 0,8-10 0,-7 10 0,0-5 0,-3 1 0,-12 3 0,6-9 0,-8 8 0,1-7 0,-6 7 0,4-8 0,-3 3 0,-1 0 0,4-3 0,-9 3 0,3-4 0,-4 0 0,-5 4 0,10-3 0,4 4 0,12 0 0,6 2 0,-1 10 0,1 2 0,-1 0 0,1-1 0,-7-2 0,-2-3 0,-6 2 0,6-3 0,-5-1 0,5 0 0,-6 0 0,0 0 0,-1 0 0,7 0 0,-4 0 0,4 0 0,-7 0 0,-4-1 0,3 1 0,-4-1 0,0 0 0,4-4 0,-9 2 0,4-2 0,0-1 0,-5 3 0,5-7 0,-5 7 0,4-7 0,-3 8 0,4-8 0,0 8 0,1-8 0,0 4 0,4 0 0,-4-4 0,1 4 0,7-1 0,-12-3 0,7 7 0,-10-7 0,6 8 0,-4-8 0,3 8 0,1-8 0,1 8 0,6-8 0,0 9 0,-1-4 0,1 0 0,-6 3 0,4-8 0,-9 7 0,4-7 0,-6 4 0,0-1 0,1-3 0,-1 3 0,1-4 0,-1 4 0,0-3 0,0 3 0,0 0 0,1-3 0,-1 7 0,0-7 0,1 8 0,-1-8 0,1 7 0,-1-7 0,0 7 0,0-3 0,0 4 0,0-4 0,0 3 0,1-7 0,-1 3 0,1 0 0,-1-3 0,0 4 0,-3-1 0,2-3 0,-3 3 0,4 0 0,1-3 0,-1 8 0,1-4 0,-1 0 0,0 3 0,1-3 0,-1 1 0,0 2 0,1-7 0,-1 7 0,1-7 0,-1 4 0,-4-1 0,3-3 0,-3 3 0,4-4 0,1 4 0,-1-3 0,1 3 0,-1 1 0,0-4 0,1 3 0,-1 0 0,0-3 0,1 3 0,-1-4 0,1 0 0,-1 0 0,0 0 0,1 4 0,-1-3 0,6 3 0,-4 1 0,3-4 0,-4 3 0,-1-4 0,0 4 0,1-3 0,-1 3 0,0-4 0,0 0 0,0 4 0,0-3 0,1 4 0,-1-1 0,0-3 0,1 3 0,-1 0 0,1-3 0,-1 7 0,0-6 0,1 6 0,-1-7 0,0 3 0,1-4 0,-1 4 0,0-3 0,-1 3 0,-3 0 0,3-3 0,-3 3 0,4 0 0,0-3 0,0 3 0,-4 0 0,3-3 0,-4 3 0,2 0 0,1-3 0,-2 3 0,4-1 0,0-2 0,-5 7 0,4-7 0,-4 3 0,5-4 0,-5 4 0,3-4 0,-6 8 0,7-7 0,-3 3 0,4-4 0,-1 0 0,-3 4 0,3-3 0,-3 3 0,4-1 0,-1 2 0,1 4 0,-5-5 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 24575,'0'9'0,"0"-1"0,0 2 0,0-1 0,0 0 0,0 1 0,0-1 0,0-1 0,0 2 0,0-2 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-2 0,0 2 0,0-2 0,0 1 0,0 0 0,0 0 0,0 0 0,4-4 0,-3 3 0,4-3 0,-5 5 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,4-4 0,-3 3 0,3-4 0,-4 5 0,0 0 0,0 0 0,0-1 0,0 1 0,4-5 0,-3 4 0,3-3 0,0 0 0,1-1 0,3-4 0,-4 0 0,0 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2494,14 +1829,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T15:51:27.505"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-09-28T16:16:27.708"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.025" units="cm"/>
       <inkml:brushProperty name="height" value="0.025" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 94 24575,'8'0'0,"1"0"0,1 0 0,-1 0 0,6 0 0,-4 0 0,3 0 0,-4 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,6-5 0,-4 4 0,9-4 0,-9 5 0,4 0 0,-6 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1-4 0,0 3 0,0-3 0,0 4 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-4 0,0 3 0,1-3 0,-1 0 0,0 3 0,0-4 0,1 5 0,-1 0 0,0 0 0,0 0 0,0 0 0,1-4 0,-2 3 0,1-3 0,0 4 0,0 0 0,-4-4 0,3 3 0,-4-2 0,5 3 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,-3-5 0,3 4 0,-2-3 0,-1 0 0,3 3 0,-3-3 0,0 0 0,3 3 0,-3-4 0,0 2 0,3 2 0,-3-3 0,3 4 0,-3 0 0,-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 24575,'0'9'0,"4"-1"0,-3 1 0,7-4 0,-3 3 0,4-3 0,-1 3 0,-3 1 0,3-4 0,-3 2 0,0-2 0,3 4 0,-3 0 0,0 0 0,3-4 0,-7 4 0,3-4 0,1 0 0,-4 3 0,7-7 0,-7 7 0,7-7 0,-7 7 0,8-7 0,-8 8 0,7-4 0,-3 0 0,-1 3 0,4-7 0,-3 6 0,0-2 0,3 0 0,-7 2 0,8-6 0,-8 7 0,7-7 0,-3 6 0,4-6 0,-5 7 0,4-7 0,-4 6 0,5-6 0,-4 7 0,2-7 0,-6 8 0,6-8 0,-6 7 0,7-3 0,-7 4 0,6-5 0,-6 4 0,7-7 0,-7 7 0,6-8 0,-2 4 0,-1-4 0,0 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2804,7 +2139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371B347D-5216-3543-87D4-780155D96A6A}">
   <dimension ref="A2:O42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12:E12"/>
     </sheetView>
   </sheetViews>
@@ -2821,97 +2156,97 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="46"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="21"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="49"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="52"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
       <c r="N5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="29"/>
       <c r="O6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="38"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
@@ -2942,34 +2277,34 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -2987,18 +2322,18 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="3"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -3009,94 +2344,94 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="6"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="49" t="s">
+      <c r="I17" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
       <c r="L17" s="6"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="6"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="41"/>
-      <c r="K18" s="42"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="6"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="6"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="45"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="39"/>
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="6"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="45"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="39"/>
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="6"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="45"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="6"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="45"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
       <c r="F23" s="6"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="48"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
@@ -3113,18 +2448,18 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="6"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="23"/>
       <c r="L25" s="6"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
@@ -3353,6 +2688,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:L4"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="B5:L7"/>
@@ -3362,11 +2702,6 @@
     <mergeCell ref="I18:K23"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B2:L4"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -3377,10 +2712,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB919AC-FB1D-484E-A614-7746BC43EB3E}">
-  <dimension ref="B3:P30"/>
+  <dimension ref="B3:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3408,37 +2743,37 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J3" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="29"/>
+      <c r="J3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J4" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="52" t="s">
+      <c r="J4" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="53" t="s">
-        <v>44</v>
+      <c r="L4" s="19" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J5" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J6" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>27</v>
@@ -3447,7 +2782,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J7" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>25</v>
@@ -3456,7 +2791,7 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>25</v>
@@ -3464,88 +2799,88 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
+        <v>36</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="J11" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="52" t="s">
+      <c r="J11" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="53" t="s">
-        <v>44</v>
+      <c r="L11" s="19" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="F12" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
+      <c r="F12" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
       <c r="J12" s="13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s">
         <v>25</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="6"/>
       <c r="F13" s="15" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K13" t="s">
         <v>27</v>
@@ -3554,43 +2889,43 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="6"/>
       <c r="F14" s="13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
       </c>
       <c r="H14" s="6"/>
       <c r="J14" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="6"/>
       <c r="F15" s="13" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>26</v>
@@ -3602,308 +2937,179 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="6"/>
       <c r="F17" s="13" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="J17" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="29"/>
-      <c r="N17" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="O17" s="28"/>
-      <c r="P17" s="29"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="J17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D18" s="6"/>
       <c r="F18" s="13" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s">
         <v>25</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="J18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K18" s="1" t="s">
+      <c r="J18" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N18" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="O18" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="53" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="L18" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="6"/>
       <c r="F19" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
         <v>25</v>
       </c>
       <c r="H19" s="6"/>
       <c r="J19" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D20" s="6"/>
       <c r="F20" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H20" s="9"/>
       <c r="J20" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P20" s="6"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="13" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D21" s="6"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="J21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="4" t="s">
+      <c r="J21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="6"/>
-      <c r="N21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P21" s="6"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="13" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D22" s="6"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="J22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="9"/>
-      <c r="N22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P22" s="6"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="13" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="N23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P23" s="6"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="N24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24" s="6"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="N25" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="2:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="J26" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" s="28"/>
-      <c r="L26" s="29"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="J27" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="K27" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="L27" s="53" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="J28" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="J29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L29" s="6"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="J30" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L30" s="9"/>
+    </row>
+    <row r="26" spans="2:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="J26:L26"/>
+  <mergeCells count="5">
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J10:L10"/>
     <mergeCell ref="J17:L17"/>
-    <mergeCell ref="N17:P17"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3915,7 +3121,7 @@
   <dimension ref="A2:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3974,7 +3180,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -4012,35 +3218,98 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
